--- a/xlsx/_wiki_安徒生童话_intext.xlsx
+++ b/xlsx/_wiki_安徒生童话_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="916">
   <si>
     <t>安徒生童话</t>
   </si>
@@ -2313,6 +2313,12 @@
   </si>
   <si>
     <t>Hans Christian Andersen – 印度尼西亚语</t>
+  </si>
+  <si>
+    <t>https://ie.wikipedia.org/wiki/Hans_Christian_Andersen</t>
+  </si>
+  <si>
+    <t>Hans Christian Andersen – 国际文字（E）</t>
   </si>
   <si>
     <t>https://ilo.wikipedia.org/wiki/Hans_Christian_Andersen</t>
@@ -3105,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G458"/>
+  <dimension ref="A1:G459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12721,7 +12727,7 @@
         <v>833</v>
       </c>
       <c r="G418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -12744,7 +12750,7 @@
         <v>835</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -13641,6 +13647,29 @@
         <v>913</v>
       </c>
       <c r="G458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1</v>
+      </c>
+      <c r="D459" t="n">
+        <v>458</v>
+      </c>
+      <c r="E459" t="s">
+        <v>914</v>
+      </c>
+      <c r="F459" t="s">
+        <v>915</v>
+      </c>
+      <c r="G459" t="n">
         <v>1</v>
       </c>
     </row>
